--- a/mbs-perturbation/bottleneck/welm/nearmiss/bloated_welm_tanh_nearmiss_results.xlsx
+++ b/mbs-perturbation/bottleneck/welm/nearmiss/bloated_welm_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.4392857142857143</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.625</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7113095238095238</v>
+        <v>0.3423076923076923</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7797619047619048</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.64</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7428571428571429</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.52</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6428571428571429</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5064935064935066</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5935384615384616</v>
+        <v>0.4134057971014493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7119047619047618</v>
+        <v>0.46</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5564145658263306</v>
+        <v>0.3006578947368421</v>
       </c>
       <c r="E7" t="n">
-        <v>0.624512987012987</v>
+        <v>0.4563186813186813</v>
       </c>
     </row>
   </sheetData>
